--- a/v3/descent-fuel.xlsx
+++ b/v3/descent-fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmaring/Documents/GitHub/A320-family-fuel-model/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96EFCBA-DB5A-E54B-86CC-02B839276327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3820A9-B2C6-7B44-B35D-B76C52CDA966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="980" windowWidth="27640" windowHeight="16200" activeTab="1" xr2:uid="{B85562C1-0052-5E4E-A2A9-CF21DF1DFBED}"/>
+    <workbookView xWindow="13860" yWindow="500" windowWidth="27640" windowHeight="16200" activeTab="1" xr2:uid="{B85562C1-0052-5E4E-A2A9-CF21DF1DFBED}"/>
   </bookViews>
   <sheets>
     <sheet name="descent-time" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F16" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
